--- a/SchedulingData/dynamic12/pso/scheduling2_19.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,55 +466,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>236.34</v>
+        <v>230.5</v>
       </c>
       <c r="D2" t="n">
-        <v>304.76</v>
+        <v>298.5</v>
       </c>
       <c r="E2" t="n">
-        <v>13.604</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>304.76</v>
+        <v>249.22</v>
       </c>
       <c r="D3" t="n">
-        <v>376</v>
+        <v>310.62</v>
       </c>
       <c r="E3" t="n">
-        <v>10.58</v>
+        <v>13.488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>222.14</v>
+        <v>218.32</v>
       </c>
       <c r="D4" t="n">
-        <v>264.34</v>
+        <v>264.76</v>
       </c>
       <c r="E4" t="n">
-        <v>11.276</v>
+        <v>13.644</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>376</v>
+        <v>298.5</v>
       </c>
       <c r="D5" t="n">
-        <v>428.5</v>
+        <v>343.1</v>
       </c>
       <c r="E5" t="n">
-        <v>8.42</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>243.78</v>
+        <v>223.06</v>
       </c>
       <c r="D6" t="n">
-        <v>298.88</v>
+        <v>285.46</v>
       </c>
       <c r="E6" t="n">
-        <v>14.712</v>
+        <v>14.124</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>264.34</v>
+        <v>235.52</v>
       </c>
       <c r="D7" t="n">
-        <v>326.74</v>
+        <v>304.06</v>
       </c>
       <c r="E7" t="n">
-        <v>7.636</v>
+        <v>10.424</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>253.96</v>
+        <v>310.62</v>
       </c>
       <c r="D8" t="n">
-        <v>297.5</v>
+        <v>380.28</v>
       </c>
       <c r="E8" t="n">
-        <v>13.88</v>
+        <v>11.112</v>
       </c>
     </row>
     <row r="9">
@@ -599,378 +599,340 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>233.26</v>
+        <v>285.46</v>
       </c>
       <c r="D9" t="n">
-        <v>325.66</v>
+        <v>345.96</v>
       </c>
       <c r="E9" t="n">
-        <v>15.024</v>
+        <v>9.704000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>298.88</v>
+        <v>304.06</v>
       </c>
       <c r="D10" t="n">
-        <v>343.24</v>
+        <v>350.46</v>
       </c>
       <c r="E10" t="n">
-        <v>11.896</v>
+        <v>7.904</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>326.74</v>
+        <v>345.96</v>
       </c>
       <c r="D11" t="n">
-        <v>380.66</v>
+        <v>403.16</v>
       </c>
       <c r="E11" t="n">
-        <v>4.864</v>
+        <v>6.584</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>239.46</v>
+        <v>380.28</v>
       </c>
       <c r="D12" t="n">
-        <v>297.66</v>
+        <v>445.38</v>
       </c>
       <c r="E12" t="n">
-        <v>11.344</v>
+        <v>6.732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>297.5</v>
+        <v>350.46</v>
       </c>
       <c r="D13" t="n">
-        <v>341.14</v>
+        <v>404.68</v>
       </c>
       <c r="E13" t="n">
-        <v>10.656</v>
+        <v>5.572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>297.66</v>
+        <v>234.58</v>
       </c>
       <c r="D14" t="n">
-        <v>332.28</v>
+        <v>288.54</v>
       </c>
       <c r="E14" t="n">
-        <v>9.012</v>
+        <v>14.296</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>341.14</v>
+        <v>288.54</v>
       </c>
       <c r="D15" t="n">
-        <v>386.72</v>
+        <v>344.56</v>
       </c>
       <c r="E15" t="n">
-        <v>7.728</v>
+        <v>10.824</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>428.5</v>
+        <v>344.56</v>
       </c>
       <c r="D16" t="n">
-        <v>484.32</v>
+        <v>396</v>
       </c>
       <c r="E16" t="n">
-        <v>4.948</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>386.72</v>
+        <v>264.76</v>
       </c>
       <c r="D17" t="n">
-        <v>443.62</v>
+        <v>336.76</v>
       </c>
       <c r="E17" t="n">
-        <v>4.648</v>
+        <v>10.564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>443.62</v>
+        <v>404.68</v>
       </c>
       <c r="D18" t="n">
-        <v>518.04</v>
+        <v>456.78</v>
       </c>
       <c r="E18" t="n">
-        <v>2.316</v>
+        <v>2.492</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>332.28</v>
+        <v>445.38</v>
       </c>
       <c r="D19" t="n">
-        <v>374.04</v>
+        <v>487.58</v>
       </c>
       <c r="E19" t="n">
-        <v>5.476</v>
+        <v>3.652</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>325.66</v>
+        <v>396</v>
       </c>
       <c r="D20" t="n">
-        <v>367.76</v>
+        <v>440.52</v>
       </c>
       <c r="E20" t="n">
-        <v>11.944</v>
+        <v>5.468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>343.24</v>
+        <v>343.1</v>
       </c>
       <c r="D21" t="n">
-        <v>406.44</v>
+        <v>403.6</v>
       </c>
       <c r="E21" t="n">
-        <v>8.176</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>406.44</v>
+        <v>336.76</v>
       </c>
       <c r="D22" t="n">
-        <v>460.3</v>
+        <v>389.26</v>
       </c>
       <c r="E22" t="n">
-        <v>4.9</v>
+        <v>8.404</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>374.04</v>
+        <v>403.16</v>
       </c>
       <c r="D23" t="n">
-        <v>423.8</v>
+        <v>445.86</v>
       </c>
       <c r="E23" t="n">
-        <v>3.1</v>
+        <v>4.424</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>380.66</v>
+        <v>403.6</v>
       </c>
       <c r="D24" t="n">
-        <v>445.46</v>
+        <v>459.3</v>
       </c>
       <c r="E24" t="n">
-        <v>1.504</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>445.46</v>
+        <v>440.52</v>
       </c>
       <c r="D25" t="n">
-        <v>543.95</v>
+        <v>489.76</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>2.164</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>367.76</v>
+        <v>389.26</v>
       </c>
       <c r="D26" t="n">
-        <v>434.92</v>
+        <v>454.76</v>
       </c>
       <c r="E26" t="n">
-        <v>9.348000000000001</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>pond57</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>434.92</v>
-      </c>
-      <c r="D27" t="n">
-        <v>522.22</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7.188</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>pond41</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>522.22</v>
-      </c>
-      <c r="D28" t="n">
-        <v>564.8200000000001</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.068</v>
+        <v>5.984</v>
       </c>
     </row>
   </sheetData>
